--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_4_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_4_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4223436.238610427</v>
+        <v>4228375.501459458</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -907,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>374.5868517518655</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>350.4446476736345</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1107,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>174.8813118982898</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>174.8813118982896</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1144,16 +1144,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>404.3795358314629</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>20.52965284373308</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1305,7 +1305,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>14.52687838733164</v>
+        <v>30.60408762095413</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1384,13 +1384,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896925</v>
       </c>
       <c r="H11" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274209</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,10 +1423,10 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498011</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>118.4898845065126</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1578,10 +1578,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>139.153727875004</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1779,10 +1779,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>33.32815808118231</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>115.5269768002183</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>139.1537278750042</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>33.35146980185925</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,19 +2475,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2526,25 +2526,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>204.1291651532058</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>27.37255160319442</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2715,7 +2715,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>80.83119524460993</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2772,13 +2772,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>164.3675597136124</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -3003,10 +3003,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>139.1537278750035</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151922</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>143.3158222056515</v>
+        <v>143.3158222056519</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3432,7 +3432,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>115.5269768002178</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>194.802669542686</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3514,7 +3514,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>411.9645167896915</v>
@@ -3559,7 +3559,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3714,7 +3714,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>139.1537278750038</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
@@ -3963,10 +3963,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y43" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4137,7 +4137,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4185,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>173.9898110906269</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4330,7 +4330,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733127</v>
@@ -4409,31 +4409,31 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4543,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1721.819089287443</v>
+        <v>1689.203741822952</v>
       </c>
       <c r="C5" t="n">
-        <v>1721.819089287443</v>
+        <v>1689.203741822952</v>
       </c>
       <c r="D5" t="n">
-        <v>1363.553390680693</v>
+        <v>1330.938043216202</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>1330.938043216202</v>
       </c>
       <c r="F5" t="n">
         <v>952.5674858910851</v>
@@ -4570,16 +4570,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4609,10 +4609,10 @@
         <v>2465.942913862886</v>
       </c>
       <c r="X5" t="n">
-        <v>2111.958421263255</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="Y5" t="n">
-        <v>1721.819089287443</v>
+        <v>2075.803581887074</v>
       </c>
     </row>
     <row r="6">
@@ -4731,43 +4731,43 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>551.4811944101821</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>551.4811944101821</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>551.4811944101821</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>551.4811944101821</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>551.4811944101821</v>
       </c>
       <c r="Y7" t="n">
         <v>551.4811944101821</v>
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1589.347031634718</v>
+        <v>2079.343073798764</v>
       </c>
       <c r="C8" t="n">
-        <v>1220.384514694307</v>
+        <v>1710.380556858352</v>
       </c>
       <c r="D8" t="n">
-        <v>862.1188160875561</v>
+        <v>1352.114858251602</v>
       </c>
       <c r="E8" t="n">
-        <v>476.3305634893118</v>
+        <v>966.3266056533573</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>555.3407008637498</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V8" t="n">
-        <v>2366.086203674652</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W8" t="n">
-        <v>2366.086203674652</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X8" t="n">
-        <v>2366.086203674652</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="Y8" t="n">
-        <v>1975.94687169884</v>
+        <v>2465.942913862886</v>
       </c>
     </row>
     <row r="9">
@@ -4859,19 +4859,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424006</v>
@@ -4883,43 +4883,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="C10" t="n">
-        <v>559.1928012785276</v>
+        <v>529.7758821321493</v>
       </c>
       <c r="D10" t="n">
-        <v>409.0761618661918</v>
+        <v>379.6592427198135</v>
       </c>
       <c r="E10" t="n">
-        <v>261.1630682837987</v>
+        <v>231.7461491374204</v>
       </c>
       <c r="F10" t="n">
-        <v>114.2731207858883</v>
+        <v>84.85620163951003</v>
       </c>
       <c r="G10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4968,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
     </row>
     <row r="11">
@@ -5029,16 +5029,16 @@
         <v>1315.304916405198</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155897</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805483</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822476</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823787</v>
@@ -5053,16 +5053,16 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
         <v>4860.854573014293</v>
@@ -5108,16 +5108,16 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G12" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
         <v>263.5382936126483</v>
@@ -5126,19 +5126,19 @@
         <v>674.428562457161</v>
       </c>
       <c r="L12" t="n">
-        <v>1288.32563221405</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M12" t="n">
-        <v>1722.015429253975</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M13" t="n">
         <v>779.0639759471194</v>
@@ -5226,25 +5226,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557903</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U13" t="n">
-        <v>1209.787631771461</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V13" t="n">
-        <v>955.1031435655742</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W13" t="n">
-        <v>665.6859735286137</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X13" t="n">
-        <v>437.6964226305963</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y13" t="n">
-        <v>216.9038434870662</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
         <v>1701.09316900344</v>
@@ -5266,16 +5266,16 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
         <v>365.8813331823787</v>
@@ -5287,40 +5287,40 @@
         <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614724</v>
@@ -5345,16 +5345,16 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G15" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H15" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
         <v>263.5382936126483</v>
@@ -5412,37 +5412,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028584</v>
+        <v>467.9934022109805</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028584</v>
+        <v>299.0572192830737</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>299.0572192830737</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>299.0572192830737</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>299.0572192830737</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>130.8818976028943</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
         <v>779.0639759471194</v>
@@ -5460,28 +5460,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1382.222354598086</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T16" t="n">
-        <v>1158.436939387592</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U16" t="n">
-        <v>869.3083006011506</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V16" t="n">
-        <v>614.6238123952637</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="W16" t="n">
-        <v>325.2066423583032</v>
+        <v>1098.423997082768</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028584</v>
+        <v>870.4344461847504</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028584</v>
+        <v>649.6418670412203</v>
       </c>
     </row>
     <row r="17">
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
         <v>488.1932370805469</v>
@@ -5521,22 +5521,22 @@
         <v>889.2841917514085</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014292</v>
@@ -5551,16 +5551,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5594,7 +5594,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
         <v>674.428562457161</v>
@@ -5676,10 +5676,10 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
         <v>779.0639759471194</v>
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822462</v>
@@ -5779,22 +5779,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614724</v>
@@ -5831,7 +5831,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
         <v>674.428562457161</v>
@@ -5913,10 +5913,10 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
         <v>779.0639759471194</v>
@@ -5934,22 +5934,22 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T22" t="n">
-        <v>1158.436939387592</v>
+        <v>964.1357418247865</v>
       </c>
       <c r="U22" t="n">
-        <v>869.3083006011506</v>
+        <v>675.0071030383447</v>
       </c>
       <c r="V22" t="n">
-        <v>614.6238123952637</v>
+        <v>420.3226148324578</v>
       </c>
       <c r="W22" t="n">
-        <v>325.2066423583032</v>
+        <v>130.9054447954972</v>
       </c>
       <c r="X22" t="n">
         <v>97.21709146028584</v>
@@ -5980,7 +5980,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822462</v>
@@ -6068,7 +6068,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
         <v>674.428562457161</v>
@@ -6123,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>711.072954880832</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>542.1367719529251</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
         <v>97.21709146028584</v>
@@ -6150,10 +6150,10 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
         <v>779.0639759471194</v>
@@ -6174,25 +6174,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557903</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U25" t="n">
-        <v>1209.787631771461</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V25" t="n">
-        <v>1209.787631771461</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W25" t="n">
-        <v>920.3704617345004</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>920.3704617345004</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
-        <v>892.7214197110717</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6205,7 +6205,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
         <v>1701.09316900344</v>
@@ -6214,31 +6214,31 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514091</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643324</v>
@@ -6250,25 +6250,25 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6293,34 +6293,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M27" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>178.8647634245383</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6393,7 +6393,7 @@
         <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6402,34 +6402,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U28" t="n">
-        <v>1098.712528333286</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V28" t="n">
-        <v>1098.712528333286</v>
+        <v>955.1031435655742</v>
       </c>
       <c r="W28" t="n">
-        <v>809.2953582963255</v>
+        <v>665.6859735286137</v>
       </c>
       <c r="X28" t="n">
-        <v>581.3058073983082</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y28" t="n">
-        <v>360.513228254778</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="29">
@@ -6442,73 +6442,73 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
         <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6530,34 +6530,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>412.6079778147081</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L30" t="n">
-        <v>659.3731057211721</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M30" t="n">
-        <v>966.6932390011339</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>1296.555866665167</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O30" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P30" t="n">
         <v>2328.464088060424</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6630,7 +6630,7 @@
         <v>507.4972331799365</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6639,34 +6639,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S31" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U31" t="n">
-        <v>869.3083006011507</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V31" t="n">
-        <v>614.6238123952638</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W31" t="n">
         <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6679,49 +6679,49 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014292</v>
@@ -6733,16 +6733,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6767,13 +6767,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
         <v>97.21709146028584</v>
@@ -6782,19 +6782,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P33" t="n">
         <v>2328.464088060424</v>
@@ -6864,10 +6864,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6876,28 +6876,28 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S34" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1075.21084526296</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U34" t="n">
-        <v>786.0822064765186</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V34" t="n">
-        <v>531.3977182706318</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W34" t="n">
-        <v>241.9805482336712</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="X34" t="n">
         <v>97.21709146028584</v>
@@ -6916,40 +6916,40 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H35" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643324</v>
@@ -6958,28 +6958,28 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7004,13 +7004,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I36" t="n">
         <v>97.21709146028584</v>
@@ -7019,19 +7019,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P36" t="n">
         <v>2328.464088060424</v>
@@ -7071,13 +7071,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028584</v>
+        <v>245.130185042679</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028584</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028584</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E37" t="n">
         <v>97.21709146028584</v>
@@ -7101,10 +7101,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7113,34 +7113,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S37" t="n">
-        <v>1382.222354598086</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T37" t="n">
-        <v>1158.436939387592</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U37" t="n">
-        <v>869.3083006011506</v>
+        <v>986.0022165609669</v>
       </c>
       <c r="V37" t="n">
-        <v>614.6238123952637</v>
+        <v>731.31772835508</v>
       </c>
       <c r="W37" t="n">
-        <v>325.2066423583032</v>
+        <v>441.9005583181194</v>
       </c>
       <c r="X37" t="n">
-        <v>97.21709146028584</v>
+        <v>245.130185042679</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.21709146028584</v>
+        <v>245.130185042679</v>
       </c>
     </row>
     <row r="38">
@@ -7150,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
@@ -7174,16 +7174,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
         <v>3183.709822619127</v>
@@ -7192,7 +7192,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
         <v>4801.62743720783</v>
@@ -7210,16 +7210,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7253,22 +7253,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>841.8631140141288</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
-        <v>1171.725741678162</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7362,16 +7362,16 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U40" t="n">
-        <v>869.3083006011506</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V40" t="n">
-        <v>614.6238123952637</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W40" t="n">
-        <v>325.2066423583032</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X40" t="n">
         <v>97.21709146028584</v>
@@ -7390,70 +7390,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7596,22 +7596,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U43" t="n">
-        <v>986.0022165609664</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V43" t="n">
-        <v>731.3177283550796</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W43" t="n">
-        <v>441.900558318119</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X43" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y43" t="n">
         <v>97.21709146028584</v>
@@ -7639,10 +7639,10 @@
         <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H44" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028562</v>
@@ -7651,22 +7651,22 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
@@ -7733,19 +7733,19 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>1288.32563221405</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1595.645765494011</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>1925.508393158044</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2205.048458376741</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2410.070939158951</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7782,7 +7782,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>266.1532743881928</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
         <v>97.21709146028584</v>
@@ -7833,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U46" t="n">
-        <v>986.0022165609664</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V46" t="n">
-        <v>731.3177283550796</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W46" t="n">
-        <v>441.900558318119</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>266.1532743881928</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>266.1532743881928</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8075,10 +8075,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415591</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8309,7 +8309,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>274.4264991783523</v>
+        <v>274.4264991783519</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8774,10 +8774,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>127.6461250100641</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8786,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8935,7 +8935,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928307</v>
+        <v>449.5135334928316</v>
       </c>
       <c r="N14" t="n">
         <v>437.3469244119842</v>
@@ -9023,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776744</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9169,7 +9169,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504486</v>
       </c>
       <c r="M17" t="n">
         <v>449.5135334928325</v>
@@ -9187,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298102</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776744</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298102</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776744</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298102</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776744</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720745</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10193,7 +10193,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10205,16 +10205,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>234.4116509503166</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10357,7 +10357,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928307</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10901,10 +10901,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10916,10 +10916,10 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>360.5026862907258</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11381,7 +11381,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11393,10 +11393,10 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
-        <v>127.6461250100647</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>34.78428385445218</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>61.34209567542474</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23466,10 +23466,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>82.39383318338525</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23652,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23667,10 +23667,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>115.5856702863538</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23700,19 +23700,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>82.393833183385</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>82.39383318338503</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>192.3581855871779</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24363,19 +24363,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
@@ -24414,25 +24414,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>82.3938331833852</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>191.2121017489004</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24603,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>86.4156258540179</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
@@ -24660,13 +24660,13 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>61.34209567542476</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24891,10 +24891,10 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>82.39383318338571</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>82.39383318338511</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>82.39383318338568</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25320,7 +25320,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25362,7 +25362,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>82.39383318338545</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>30.90698584635112</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25602,7 +25602,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>82.39383318338548</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25836,7 +25836,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25851,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y43" t="n">
-        <v>103.0576765518772</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26025,7 +26025,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26073,13 +26073,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>51.71984429841024</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>615059.34146829</v>
+        <v>615059.3414682898</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>615059.34146829</v>
+        <v>615059.3414682898</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>615059.34146829</v>
+        <v>615059.3414682898</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>615059.34146829</v>
+        <v>615059.3414682898</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>615059.3414682898</v>
+        <v>615059.34146829</v>
       </c>
     </row>
   </sheetData>
@@ -26316,43 +26316,43 @@
         <v>821041.769864283</v>
       </c>
       <c r="C2" t="n">
+        <v>821041.7698642832</v>
+      </c>
+      <c r="D2" t="n">
         <v>821041.769864283</v>
       </c>
-      <c r="D2" t="n">
-        <v>821041.7698642833</v>
-      </c>
       <c r="E2" t="n">
-        <v>782058.1194754181</v>
+        <v>782058.1194754178</v>
       </c>
       <c r="F2" t="n">
+        <v>782058.1194754177</v>
+      </c>
+      <c r="G2" t="n">
+        <v>782058.1194754178</v>
+      </c>
+      <c r="H2" t="n">
+        <v>782058.1194754179</v>
+      </c>
+      <c r="I2" t="n">
+        <v>782058.1194754179</v>
+      </c>
+      <c r="J2" t="n">
+        <v>782058.1194754178</v>
+      </c>
+      <c r="K2" t="n">
+        <v>782058.1194754179</v>
+      </c>
+      <c r="L2" t="n">
+        <v>782058.1194754178</v>
+      </c>
+      <c r="M2" t="n">
         <v>782058.119475418</v>
-      </c>
-      <c r="G2" t="n">
-        <v>782058.119475418</v>
-      </c>
-      <c r="H2" t="n">
-        <v>782058.1194754181</v>
-      </c>
-      <c r="I2" t="n">
-        <v>782058.1194754178</v>
-      </c>
-      <c r="J2" t="n">
-        <v>782058.1194754179</v>
-      </c>
-      <c r="K2" t="n">
-        <v>782058.1194754178</v>
-      </c>
-      <c r="L2" t="n">
-        <v>782058.1194754175</v>
-      </c>
-      <c r="M2" t="n">
-        <v>782058.1194754177</v>
       </c>
       <c r="N2" t="n">
         <v>782058.1194754175</v>
       </c>
       <c r="O2" t="n">
-        <v>782058.1194754178</v>
+        <v>782058.1194754175</v>
       </c>
       <c r="P2" t="n">
         <v>782058.1194754177</v>
@@ -26374,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768963</v>
+        <v>525160.0364768964</v>
       </c>
       <c r="F3" t="n">
-        <v>4.087347790166427e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925928</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26426,31 +26426,31 @@
         <v>174490.7773218262</v>
       </c>
       <c r="E4" t="n">
-        <v>29303.54555230226</v>
+        <v>29303.54555230228</v>
       </c>
       <c r="F4" t="n">
-        <v>29303.54555230231</v>
+        <v>29303.54555230232</v>
       </c>
       <c r="G4" t="n">
         <v>29303.54555230231</v>
       </c>
       <c r="H4" t="n">
+        <v>29303.54555230232</v>
+      </c>
+      <c r="I4" t="n">
+        <v>29303.54555230232</v>
+      </c>
+      <c r="J4" t="n">
+        <v>29303.54555230232</v>
+      </c>
+      <c r="K4" t="n">
+        <v>29303.54555230232</v>
+      </c>
+      <c r="L4" t="n">
         <v>29303.54555230231</v>
       </c>
-      <c r="I4" t="n">
-        <v>29303.54555230231</v>
-      </c>
-      <c r="J4" t="n">
-        <v>29303.54555230233</v>
-      </c>
-      <c r="K4" t="n">
-        <v>29303.54555230233</v>
-      </c>
-      <c r="L4" t="n">
-        <v>29303.54555230233</v>
-      </c>
       <c r="M4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230232</v>
       </c>
       <c r="N4" t="n">
         <v>29303.54555230233</v>
@@ -26478,10 +26478,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871664</v>
@@ -26499,10 +26499,10 @@
         <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
         <v>91987.32594871662</v>
@@ -26527,43 +26527,43 @@
         <v>563691.9144790475</v>
       </c>
       <c r="D6" t="n">
-        <v>563691.9144790476</v>
+        <v>563691.9144790474</v>
       </c>
       <c r="E6" t="n">
-        <v>134632.6202377813</v>
+        <v>135509.7523715303</v>
       </c>
       <c r="F6" t="n">
-        <v>659792.6567146775</v>
+        <v>660669.7888484267</v>
       </c>
       <c r="G6" t="n">
-        <v>659792.6567146775</v>
+        <v>660669.7888484268</v>
       </c>
       <c r="H6" t="n">
-        <v>659792.6567146776</v>
+        <v>660669.7888484269</v>
       </c>
       <c r="I6" t="n">
-        <v>659792.6567146772</v>
+        <v>660669.7888484269</v>
       </c>
       <c r="J6" t="n">
-        <v>483369.4375220845</v>
+        <v>484246.5696558338</v>
       </c>
       <c r="K6" t="n">
-        <v>659792.6567146771</v>
+        <v>660669.7888484269</v>
       </c>
       <c r="L6" t="n">
-        <v>659792.6567146769</v>
+        <v>660669.7888484268</v>
       </c>
       <c r="M6" t="n">
-        <v>524991.6414808398</v>
+        <v>525868.7736145898</v>
       </c>
       <c r="N6" t="n">
-        <v>659792.6567146769</v>
+        <v>660669.7888484267</v>
       </c>
       <c r="O6" t="n">
-        <v>659792.6567146771</v>
+        <v>660669.7888484264</v>
       </c>
       <c r="P6" t="n">
-        <v>659792.6567146771</v>
+        <v>660669.7888484267</v>
       </c>
     </row>
   </sheetData>
@@ -26740,37 +26740,37 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
+        <v>377.7436642170867</v>
+      </c>
+      <c r="D3" t="n">
         <v>377.7436642170866</v>
       </c>
-      <c r="D3" t="n">
-        <v>377.7436642170867</v>
-      </c>
       <c r="E3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="N3" t="n">
         <v>830.3824054541002</v>
@@ -26919,7 +26919,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>5.109184737708033e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545559</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27156,7 +27156,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>5.109184737708033e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27627,7 +27627,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>32.28919398984596</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27681,7 +27681,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>19.28645300483453</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27794,10 +27794,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,16 +27818,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>50.15379355979445</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>43.70334145380519</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27864,16 +27864,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>2.496509910248562</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>393.2545171770619</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,10 +27900,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -27912,7 +27912,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -27921,7 +27921,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28025,7 +28025,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>152.7829238717193</v>
+        <v>136.7057146380968</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28104,7 +28104,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>-1.080024958355352e-12</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -31278,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,22 +31460,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
         <v>34.18755300444946</v>
@@ -31773,13 +31773,13 @@
         <v>586.162349956552</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647497</v>
@@ -31794,7 +31794,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31849,7 +31849,7 @@
         <v>387.8120847358986</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N12" t="n">
         <v>464.5362854813463</v>
@@ -31870,7 +31870,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31910,10 +31910,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
         <v>45.03122946298631</v>
@@ -31922,10 +31922,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
         <v>234.725964217132</v>
@@ -31934,7 +31934,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
@@ -31946,13 +31946,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
         <v>34.18755300444946</v>
@@ -32010,13 +32010,13 @@
         <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647497</v>
@@ -32031,7 +32031,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32086,7 +32086,7 @@
         <v>387.8120847358986</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N15" t="n">
         <v>464.5362854813463</v>
@@ -32107,7 +32107,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32147,10 +32147,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
         <v>45.03122946298631</v>
@@ -32159,10 +32159,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
         <v>234.725964217132</v>
@@ -32171,7 +32171,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
@@ -32183,13 +32183,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
         <v>34.18755300444946</v>
@@ -32247,13 +32247,13 @@
         <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647497</v>
@@ -32268,7 +32268,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32323,7 +32323,7 @@
         <v>387.8120847358986</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N18" t="n">
         <v>464.5362854813463</v>
@@ -32344,7 +32344,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32384,10 +32384,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
         <v>45.03122946298631</v>
@@ -32396,10 +32396,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
         <v>234.725964217132</v>
@@ -32408,7 +32408,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
@@ -32420,13 +32420,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
         <v>34.18755300444946</v>
@@ -32484,13 +32484,13 @@
         <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647497</v>
@@ -32505,7 +32505,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32560,7 +32560,7 @@
         <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N21" t="n">
         <v>464.5362854813463</v>
@@ -32581,7 +32581,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32621,10 +32621,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
         <v>45.03122946298631</v>
@@ -32633,10 +32633,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
         <v>234.725964217132</v>
@@ -32645,7 +32645,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P22" t="n">
         <v>181.1050413469073</v>
@@ -32657,13 +32657,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
         <v>34.18755300444946</v>
@@ -32721,13 +32721,13 @@
         <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647497</v>
@@ -32742,7 +32742,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32797,7 +32797,7 @@
         <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N24" t="n">
         <v>464.5362854813463</v>
@@ -32818,7 +32818,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32858,10 +32858,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
         <v>45.03122946298631</v>
@@ -32870,10 +32870,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
         <v>234.725964217132</v>
@@ -32882,7 +32882,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P25" t="n">
         <v>181.1050413469073</v>
@@ -32894,13 +32894,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32940,7 +32940,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
         <v>128.6967545176652</v>
@@ -32949,31 +32949,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P26" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33022,31 +33022,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J27" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
@@ -33101,7 +33101,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33113,7 +33113,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
         <v>229.1447054263751</v>
@@ -33125,19 +33125,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33177,7 +33177,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I29" t="n">
         <v>128.6967545176652</v>
@@ -33186,31 +33186,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P29" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33259,31 +33259,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J30" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
@@ -33338,7 +33338,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33350,7 +33350,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N31" t="n">
         <v>229.1447054263751</v>
@@ -33362,19 +33362,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,46 +33490,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33575,7 +33575,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33587,10 +33587,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33599,19 +33599,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,46 +33727,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33812,7 +33812,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33824,10 +33824,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33836,19 +33836,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34795,10 +34795,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>220.2054057751866</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,13 +35026,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>325.1459203262125</v>
+        <v>325.1459203262123</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35263,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,7 +35409,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
         <v>528.6897561303331</v>
@@ -35421,19 +35421,19 @@
         <v>805.3296502221118</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081121</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q11" t="n">
         <v>350.4995841502049</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
         <v>415.0406756005179</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594837</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M12" t="n">
-        <v>438.0705020605305</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507419</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299106</v>
@@ -35576,7 +35576,7 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056037</v>
@@ -35588,7 +35588,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
         <v>528.6897561303331</v>
@@ -35655,22 +35655,22 @@
         <v>708.6910667109073</v>
       </c>
       <c r="M14" t="n">
-        <v>805.32965022211</v>
+        <v>805.3296502221109</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081121</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q14" t="n">
         <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
         <v>415.0406756005179</v>
@@ -35737,16 +35737,16 @@
         <v>310.4243770504664</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975091992</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299106</v>
@@ -35813,7 +35813,7 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
         <v>273.2768778056037</v>
@@ -35825,7 +35825,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109055</v>
       </c>
       <c r="M17" t="n">
         <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081121</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q17" t="n">
         <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
         <v>415.0406756005179</v>
@@ -35974,16 +35974,16 @@
         <v>310.4243770504664</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975091992</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299106</v>
@@ -36050,7 +36050,7 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
         <v>273.2768778056037</v>
@@ -36062,7 +36062,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
         <v>528.6897561303331</v>
@@ -36132,13 +36132,13 @@
         <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081121</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q20" t="n">
         <v>350.4995841502049</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
         <v>415.0406756005179</v>
@@ -36211,16 +36211,16 @@
         <v>310.4243770504664</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091992</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
@@ -36287,7 +36287,7 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
         <v>273.2768778056037</v>
@@ -36299,7 +36299,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
         <v>528.6897561303331</v>
@@ -36369,13 +36369,13 @@
         <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081121</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
         <v>350.4995841502049</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
         <v>415.0406756005179</v>
@@ -36448,16 +36448,16 @@
         <v>310.4243770504664</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091992</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
@@ -36524,7 +36524,7 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
         <v>273.2768778056037</v>
@@ -36536,7 +36536,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415086</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,13 +36676,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N27" t="n">
         <v>333.1945733980129</v>
@@ -36691,7 +36691,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36752,19 +36752,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O28" t="n">
         <v>236.2373515206029</v>
@@ -36773,7 +36773,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36837,25 +36837,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36913,22 +36913,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N30" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>516.7753531914248</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36989,19 +36989,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K31" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M31" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O31" t="n">
         <v>236.2373515206029</v>
@@ -37010,7 +37010,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,28 +37071,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.32965022211</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37150,22 +37150,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M34" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,28 +37308,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,22 +37387,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M37" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37621,10 +37621,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
@@ -37636,10 +37636,10 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>642.8663885318339</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -38101,7 +38101,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
         <v>310.4243770504662</v>
@@ -38113,10 +38113,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
-        <v>215.6591577951388</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
